--- a/ig/main/ValueSet-JDV-J286-ProfilUtilisateurReferentielNational-ROR.xlsx
+++ b/ig/main/ValueSet-JDV-J286-ProfilUtilisateurReferentielNational-ROR.xlsx
@@ -147,7 +147,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R369-ProfilUtilisateurReferentielNational/FHIR/TRE_R369-ProfilUtilisateurReferentielNational</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R369_ProfilUtilisateurReferentielNational/FHIR/TRE-R369-ProfilUtilisateurReferentielNational</t>
   </si>
 </sst>
 </file>

--- a/ig/main/ValueSet-JDV-J286-ProfilUtilisateurReferentielNational-ROR.xlsx
+++ b/ig/main/ValueSet-JDV-J286-ProfilUtilisateurReferentielNational-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T12:00:00+01:00</t>
+    <t>2024-12-13T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -142,6 +142,24 @@
   </si>
   <si>
     <t>Professionnel de Santé Libéral (PSL)</t>
+  </si>
+  <si>
+    <t>ADMIN_METIER</t>
+  </si>
+  <si>
+    <t>Administrateur Métier</t>
+  </si>
+  <si>
+    <t>SUPPORT</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>REF_MSP</t>
+  </si>
+  <si>
+    <t>Référent Maison de Santé Pluriprofessionnelle</t>
   </si>
   <si>
     <t>System URI</t>
@@ -418,7 +436,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -494,18 +512,42 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J286-ProfilUtilisateurReferentielNational-ROR.xlsx
+++ b/ig/main/ValueSet-JDV-J286-ProfilUtilisateurReferentielNational-ROR.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
